--- a/Crawler/gartner/gartner_topic.xlsx
+++ b/Crawler/gartner/gartner_topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #0</t>
   </si>
@@ -46,427 +46,433 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                         change</t>
-  </si>
-  <si>
-    <t>1                           plan</t>
+    <t>0                           time</t>
+  </si>
+  <si>
+    <t>1                           term</t>
+  </si>
+  <si>
+    <t>2                        process</t>
+  </si>
+  <si>
+    <t>3                       planning</t>
+  </si>
+  <si>
+    <t>4                       strategy</t>
+  </si>
+  <si>
+    <t>5                       projects</t>
+  </si>
+  <si>
+    <t>6                    initiatives</t>
+  </si>
+  <si>
+    <t>7                        project</t>
+  </si>
+  <si>
+    <t>8                     management</t>
+  </si>
+  <si>
+    <t>9                        leaders</t>
+  </si>
+  <si>
+    <t>10                         value</t>
+  </si>
+  <si>
+    <t>11                     strategic</t>
+  </si>
+  <si>
+    <t>12                         costs</t>
+  </si>
+  <si>
+    <t>13                          cost</t>
+  </si>
+  <si>
+    <t>14                      business</t>
+  </si>
+  <si>
+    <t>0                          value</t>
+  </si>
+  <si>
+    <t>1                       managers</t>
+  </si>
+  <si>
+    <t>2                           make</t>
+  </si>
+  <si>
+    <t>3                           high</t>
+  </si>
+  <si>
+    <t>4                        process</t>
+  </si>
+  <si>
+    <t>5                            new</t>
+  </si>
+  <si>
+    <t>6                         growth</t>
+  </si>
+  <si>
+    <t>7                        leaders</t>
+  </si>
+  <si>
+    <t>8                    information</t>
+  </si>
+  <si>
+    <t>9                      marketing</t>
+  </si>
+  <si>
+    <t>10                        market</t>
+  </si>
+  <si>
+    <t>11                     customers</t>
+  </si>
+  <si>
+    <t>12                      customer</t>
+  </si>
+  <si>
+    <t>13                       product</t>
+  </si>
+  <si>
+    <t>14                         sales</t>
+  </si>
+  <si>
+    <t>0                        quality</t>
+  </si>
+  <si>
+    <t>1                       insights</t>
+  </si>
+  <si>
+    <t>2                         making</t>
+  </si>
+  <si>
+    <t>3                     governance</t>
+  </si>
+  <si>
+    <t>4                      decisions</t>
+  </si>
+  <si>
+    <t>5                   organization</t>
+  </si>
+  <si>
+    <t>6                          value</t>
+  </si>
+  <si>
+    <t>8                            use</t>
+  </si>
+  <si>
+    <t>9                  organizations</t>
+  </si>
+  <si>
+    <t>10                      decision</t>
+  </si>
+  <si>
+    <t>11                   information</t>
+  </si>
+  <si>
+    <t>12                      business</t>
+  </si>
+  <si>
+    <t>13                     analytics</t>
+  </si>
+  <si>
+    <t>14                          data</t>
+  </si>
+  <si>
+    <t>0                       pandemic</t>
+  </si>
+  <si>
+    <t>1                   organization</t>
   </si>
   <si>
     <t>2                           need</t>
   </si>
   <si>
+    <t>3                             19</t>
+  </si>
+  <si>
+    <t>4                          covid</t>
+  </si>
+  <si>
+    <t>5                      workforce</t>
+  </si>
+  <si>
+    <t>6                       managers</t>
+  </si>
+  <si>
+    <t>7                  organizations</t>
+  </si>
+  <si>
+    <t>8                        leaders</t>
+  </si>
+  <si>
+    <t>9                         skills</t>
+  </si>
+  <si>
+    <t>10                        talent</t>
+  </si>
+  <si>
+    <t>11                      employee</t>
+  </si>
+  <si>
+    <t>12                            hr</t>
+  </si>
+  <si>
+    <t>13                          work</t>
+  </si>
+  <si>
+    <t>14                     employees</t>
+  </si>
+  <si>
+    <t>1                     innovation</t>
+  </si>
+  <si>
+    <t>2                           said</t>
+  </si>
+  <si>
     <t>3                     enterprise</t>
   </si>
   <si>
-    <t>4                            new</t>
-  </si>
-  <si>
-    <t>5                          value</t>
-  </si>
-  <si>
-    <t>6                  organizations</t>
-  </si>
-  <si>
-    <t>7                     management</t>
-  </si>
-  <si>
-    <t>8                      strategic</t>
-  </si>
-  <si>
-    <t>9                          risks</t>
-  </si>
-  <si>
-    <t>10                  organization</t>
-  </si>
-  <si>
-    <t>11                       leaders</t>
-  </si>
-  <si>
-    <t>12                      strategy</t>
-  </si>
-  <si>
-    <t>13                          risk</t>
-  </si>
-  <si>
-    <t>14                      business</t>
-  </si>
-  <si>
-    <t>0                      solutions</t>
-  </si>
-  <si>
-    <t>1                        virtual</t>
-  </si>
-  <si>
-    <t>2                         trends</t>
-  </si>
-  <si>
-    <t>3                         people</t>
+    <t>4                           need</t>
+  </si>
+  <si>
+    <t>5                  organizations</t>
+  </si>
+  <si>
+    <t>6                   organization</t>
+  </si>
+  <si>
+    <t>7                         change</t>
+  </si>
+  <si>
+    <t>8                     technology</t>
+  </si>
+  <si>
+    <t>9                            cio</t>
+  </si>
+  <si>
+    <t>10                transformation</t>
+  </si>
+  <si>
+    <t>11                           new</t>
+  </si>
+  <si>
+    <t>12                          cios</t>
+  </si>
+  <si>
+    <t>13                      business</t>
+  </si>
+  <si>
+    <t>14                       digital</t>
+  </si>
+  <si>
+    <t>0                       learning</t>
+  </si>
+  <si>
+    <t>1                   intelligence</t>
+  </si>
+  <si>
+    <t>2                           data</t>
+  </si>
+  <si>
+    <t>3                        devices</t>
   </si>
   <si>
     <t>4                          human</t>
   </si>
   <si>
-    <t>5                       business</t>
-  </si>
-  <si>
-    <t>6                        devices</t>
-  </si>
-  <si>
-    <t>7                            use</t>
+    <t>5                         things</t>
+  </si>
+  <si>
+    <t>6                       business</t>
+  </si>
+  <si>
+    <t>7                            iot</t>
   </si>
   <si>
     <t>8                          smart</t>
   </si>
   <si>
-    <t>9                         things</t>
-  </si>
-  <si>
-    <t>10                           new</t>
+    <t>9                            new</t>
+  </si>
+  <si>
+    <t>10                           use</t>
   </si>
   <si>
     <t>11                       digital</t>
   </si>
   <si>
-    <t>12                           iot</t>
-  </si>
-  <si>
-    <t>13                  technologies</t>
-  </si>
-  <si>
-    <t>14                    technology</t>
+    <t>12                  technologies</t>
+  </si>
+  <si>
+    <t>13                    technology</t>
+  </si>
+  <si>
+    <t>14                            ai</t>
   </si>
   <si>
     <t>0                        company</t>
   </si>
   <si>
-    <t>1                     innovation</t>
-  </si>
-  <si>
-    <t>2                   organization</t>
-  </si>
-  <si>
-    <t>3                  organizations</t>
-  </si>
-  <si>
-    <t>4                           need</t>
-  </si>
-  <si>
-    <t>5                       services</t>
-  </si>
-  <si>
-    <t>6                         change</t>
-  </si>
-  <si>
-    <t>7                           said</t>
-  </si>
-  <si>
-    <t>8                     technology</t>
-  </si>
-  <si>
-    <t>9                 transformation</t>
-  </si>
-  <si>
-    <t>10                           cio</t>
-  </si>
-  <si>
-    <t>11                           new</t>
-  </si>
-  <si>
-    <t>12                          cios</t>
-  </si>
-  <si>
-    <t>13                      business</t>
-  </si>
-  <si>
-    <t>14                       digital</t>
-  </si>
-  <si>
-    <t>0                           need</t>
-  </si>
-  <si>
-    <t>1                         skills</t>
-  </si>
-  <si>
-    <t>2                           make</t>
-  </si>
-  <si>
-    <t>3                         change</t>
-  </si>
-  <si>
-    <t>4                          teams</t>
-  </si>
-  <si>
-    <t>5                           time</t>
-  </si>
-  <si>
-    <t>6                   organization</t>
-  </si>
-  <si>
-    <t>7                         people</t>
-  </si>
-  <si>
-    <t>8                    performance</t>
-  </si>
-  <si>
-    <t>9                        leaders</t>
-  </si>
-  <si>
-    <t>10                      employee</t>
-  </si>
-  <si>
-    <t>11                      managers</t>
-  </si>
-  <si>
-    <t>12                          team</t>
-  </si>
-  <si>
-    <t>13                          work</t>
-  </si>
-  <si>
-    <t>14                     employees</t>
-  </si>
-  <si>
-    <t>0                       business</t>
-  </si>
-  <si>
     <t>1                           need</t>
   </si>
   <si>
-    <t>3                       pandemic</t>
-  </si>
-  <si>
-    <t>4                      workforce</t>
-  </si>
-  <si>
-    <t>5                             19</t>
-  </si>
-  <si>
-    <t>6                          covid</t>
-  </si>
-  <si>
-    <t>7                       employee</t>
-  </si>
-  <si>
-    <t>8                         skills</t>
-  </si>
-  <si>
-    <t>9                  organizations</t>
-  </si>
-  <si>
-    <t>10                          work</t>
-  </si>
-  <si>
-    <t>12                        talent</t>
-  </si>
-  <si>
-    <t>13                            hr</t>
-  </si>
-  <si>
-    <t>0                        quality</t>
-  </si>
-  <si>
-    <t>1                       insights</t>
-  </si>
-  <si>
-    <t>2                         making</t>
-  </si>
-  <si>
-    <t>3                     governance</t>
-  </si>
-  <si>
-    <t>4                      decisions</t>
-  </si>
-  <si>
-    <t>5                   organization</t>
-  </si>
-  <si>
-    <t>6                          value</t>
-  </si>
-  <si>
-    <t>7                        leaders</t>
+    <t>2                     leadership</t>
+  </si>
+  <si>
+    <t>3                            new</t>
+  </si>
+  <si>
+    <t>5                         people</t>
+  </si>
+  <si>
+    <t>6                           make</t>
+  </si>
+  <si>
+    <t>7                           work</t>
+  </si>
+  <si>
+    <t>8                           time</t>
+  </si>
+  <si>
+    <t>9                          teams</t>
+  </si>
+  <si>
+    <t>10                        change</t>
+  </si>
+  <si>
+    <t>11                  organization</t>
+  </si>
+  <si>
+    <t>12                       culture</t>
+  </si>
+  <si>
+    <t>13                       leaders</t>
+  </si>
+  <si>
+    <t>14                          team</t>
+  </si>
+  <si>
+    <t>0                       research</t>
+  </si>
+  <si>
+    <t>1                           says</t>
+  </si>
+  <si>
+    <t>2                            new</t>
+  </si>
+  <si>
+    <t>3                        company</t>
+  </si>
+  <si>
+    <t>4                         demand</t>
+  </si>
+  <si>
+    <t>5                        support</t>
+  </si>
+  <si>
+    <t>6                      companies</t>
+  </si>
+  <si>
+    <t>9                     experience</t>
+  </si>
+  <si>
+    <t>10                     customers</t>
+  </si>
+  <si>
+    <t>11                       service</t>
+  </si>
+  <si>
+    <t>12                         chain</t>
+  </si>
+  <si>
+    <t>13                      customer</t>
+  </si>
+  <si>
+    <t>14                        supply</t>
+  </si>
+  <si>
+    <t>0                        systems</t>
+  </si>
+  <si>
+    <t>1                     management</t>
+  </si>
+  <si>
+    <t>2                       business</t>
+  </si>
+  <si>
+    <t>3                            use</t>
+  </si>
+  <si>
+    <t>4                         access</t>
+  </si>
+  <si>
+    <t>5                       software</t>
+  </si>
+  <si>
+    <t>6                   applications</t>
+  </si>
+  <si>
+    <t>7                           data</t>
+  </si>
+  <si>
+    <t>8                        service</t>
+  </si>
+  <si>
+    <t>9                 infrastructure</t>
+  </si>
+  <si>
+    <t>10                 organizations</t>
+  </si>
+  <si>
+    <t>11                   application</t>
+  </si>
+  <si>
+    <t>12                      services</t>
+  </si>
+  <si>
+    <t>13                      security</t>
+  </si>
+  <si>
+    <t>14                         cloud</t>
+  </si>
+  <si>
+    <t>0                     technology</t>
+  </si>
+  <si>
+    <t>1                         design</t>
+  </si>
+  <si>
+    <t>2                           says</t>
+  </si>
+  <si>
+    <t>3                     innovation</t>
+  </si>
+  <si>
+    <t>4                       emerging</t>
+  </si>
+  <si>
+    <t>5                      potential</t>
+  </si>
+  <si>
+    <t>6                         impact</t>
+  </si>
+  <si>
+    <t>7                   organization</t>
   </si>
   <si>
     <t>8                  organizations</t>
   </si>
   <si>
-    <t>9                       decision</t>
-  </si>
-  <si>
-    <t>10                           use</t>
-  </si>
-  <si>
-    <t>11                   information</t>
-  </si>
-  <si>
-    <t>12                      business</t>
-  </si>
-  <si>
-    <t>13                     analytics</t>
-  </si>
-  <si>
-    <t>14                          data</t>
-  </si>
-  <si>
-    <t>0                     automation</t>
-  </si>
-  <si>
-    <t>1                          based</t>
-  </si>
-  <si>
-    <t>2                     management</t>
-  </si>
-  <si>
-    <t>3                        systems</t>
-  </si>
-  <si>
-    <t>4                 infrastructure</t>
-  </si>
-  <si>
-    <t>5                         access</t>
-  </si>
-  <si>
-    <t>6                   applications</t>
-  </si>
-  <si>
-    <t>8                        service</t>
-  </si>
-  <si>
-    <t>9                           data</t>
-  </si>
-  <si>
-    <t>10                 organizations</t>
-  </si>
-  <si>
-    <t>11                      services</t>
-  </si>
-  <si>
-    <t>12                      security</t>
-  </si>
-  <si>
-    <t>13                            ai</t>
-  </si>
-  <si>
-    <t>14                         cloud</t>
-  </si>
-  <si>
-    <t>0                           help</t>
-  </si>
-  <si>
-    <t>1                           says</t>
-  </si>
-  <si>
-    <t>2                       research</t>
-  </si>
-  <si>
-    <t>3                        company</t>
-  </si>
-  <si>
-    <t>4                           make</t>
-  </si>
-  <si>
-    <t>5                      marketing</t>
-  </si>
-  <si>
-    <t>6                        support</t>
-  </si>
-  <si>
-    <t>7                    information</t>
-  </si>
-  <si>
-    <t>10                    experience</t>
-  </si>
-  <si>
-    <t>11                       service</t>
-  </si>
-  <si>
-    <t>12                     customers</t>
-  </si>
-  <si>
-    <t>13                         sales</t>
-  </si>
-  <si>
-    <t>14                      customer</t>
-  </si>
-  <si>
-    <t>0                       approach</t>
-  </si>
-  <si>
-    <t>1                         market</t>
-  </si>
-  <si>
-    <t>2                       delivery</t>
-  </si>
-  <si>
-    <t>3                         design</t>
-  </si>
-  <si>
-    <t>4                        leaders</t>
-  </si>
-  <si>
-    <t>5                        process</t>
-  </si>
-  <si>
-    <t>6                          agile</t>
-  </si>
-  <si>
-    <t>7                           step</t>
-  </si>
-  <si>
-    <t>8                        project</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>10                      software</t>
-  </si>
-  <si>
-    <t>11                         teams</t>
-  </si>
-  <si>
-    <t>12                   application</t>
-  </si>
-  <si>
-    <t>14                       product</t>
-  </si>
-  <si>
-    <t>0                         impact</t>
-  </si>
-  <si>
-    <t>1                           long</t>
-  </si>
-  <si>
-    <t>3                         demand</t>
-  </si>
-  <si>
-    <t>4                       planning</t>
-  </si>
-  <si>
-    <t>5                  organizations</t>
-  </si>
-  <si>
-    <t>6                           term</t>
-  </si>
-  <si>
-    <t>7                       business</t>
-  </si>
-  <si>
-    <t>8                      companies</t>
-  </si>
-  <si>
-    <t>10                        growth</t>
-  </si>
-  <si>
-    <t>11                         costs</t>
-  </si>
-  <si>
-    <t>12                          cost</t>
-  </si>
-  <si>
-    <t>13                         chain</t>
-  </si>
-  <si>
-    <t>14                        supply</t>
+    <t>10                      security</t>
+  </si>
+  <si>
+    <t>11                    management</t>
+  </si>
+  <si>
+    <t>12                         risks</t>
+  </si>
+  <si>
+    <t>14                          risk</t>
   </si>
 </sst>
 </file>
@@ -873,25 +879,25 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -905,25 +911,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -937,25 +943,25 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -969,25 +975,25 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1001,25 +1007,25 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1033,25 +1039,25 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1065,25 +1071,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1094,28 +1100,28 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1126,28 +1132,28 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1158,28 +1164,28 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1190,28 +1196,28 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1222,28 +1228,28 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1254,28 +1260,28 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1286,28 +1292,28 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1318,28 +1324,28 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
